--- a/batch_template.xlsx
+++ b/batch_template.xlsx
@@ -834,7 +834,7 @@
     <t>2012-03-12</t>
   </si>
   <si>
-    <t>C:/Users/coverney/Documents/GitHub/TASBEFlowAnalytics-Tutorial/</t>
+    <t>input file path to fcs files</t>
   </si>
 </sst>
 </file>
@@ -1733,123 +1733,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1896,6 +1779,123 @@
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2235,65 +2235,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="126"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="110"/>
+      <c r="B4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="119"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -2304,38 +2304,38 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="122" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="125"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="J12" s="96" t="s">
         <v>189</v>
       </c>
@@ -2346,17 +2346,17 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="121"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="43" t="s">
         <v>182</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="121" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2364,19 +2364,19 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="156">
+      <c r="E14" s="117">
         <v>1</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="G14" s="117" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="103"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -2392,29 +2392,29 @@
       <c r="H15" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="103"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
-      <c r="E16" s="156">
+      <c r="E16" s="117">
         <v>3</v>
       </c>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="155" t="s">
+      <c r="H16" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="J16" s="103"/>
+      <c r="J16" s="121"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
       <c r="E17" s="44">
         <v>4</v>
       </c>
@@ -2423,57 +2423,57 @@
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
-      <c r="J17" s="103"/>
+      <c r="J17" s="121"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
       <c r="E18" s="44">
         <v>5</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
-      <c r="J18" s="103"/>
+      <c r="J18" s="121"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="144"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
       <c r="E19" s="44">
         <v>6</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="J19" s="103"/>
+      <c r="J19" s="121"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="142"/>
-      <c r="J20" s="103"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="103"/>
+      <c r="J20" s="121"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="E21" s="104" t="s">
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="E21" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="E22" s="120" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="E22" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="121"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="43" t="s">
         <v>182</v>
       </c>
@@ -2482,15 +2482,15 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="C23" s="142"/>
-      <c r="E23" s="156">
+      <c r="A23" s="106"/>
+      <c r="C23" s="103"/>
+      <c r="E23" s="117">
         <v>1</v>
       </c>
-      <c r="F23" s="156" t="s">
+      <c r="F23" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="156" t="s">
+      <c r="G23" s="117" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="100" t="s">
@@ -2499,12 +2499,12 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
       <c r="E24" s="44">
         <v>2</v>
       </c>
-      <c r="F24" s="159" t="s">
+      <c r="F24" s="120" t="s">
         <v>265</v>
       </c>
       <c r="G24" s="44"/>
@@ -2514,25 +2514,25 @@
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="E25" s="156">
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="E25" s="117">
         <v>3</v>
       </c>
-      <c r="F25" s="156" t="s">
+      <c r="F25" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="156" t="s">
+      <c r="G25" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="155" t="s">
+      <c r="H25" s="116" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
       <c r="E26" s="44">
         <v>4</v>
       </c>
@@ -2543,9 +2543,9 @@
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="142"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="103"/>
       <c r="E27" s="44">
         <v>5</v>
       </c>
@@ -2555,8 +2555,8 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
       <c r="E28" s="44">
         <v>6</v>
       </c>
@@ -2566,26 +2566,26 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="E30" s="104" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="E30" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="124"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="145"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="142"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="103"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
       <c r="G31" s="43" t="s">
         <v>182</v>
       </c>
@@ -2595,19 +2595,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="E32" s="156">
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="E32" s="117">
         <v>1</v>
       </c>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
       <c r="H32" s="100"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
       <c r="E33" s="44">
         <v>2</v>
       </c>
@@ -2616,12 +2616,12 @@
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="156">
+      <c r="E34" s="117">
         <v>3</v>
       </c>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="155"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="116"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E35" s="44">
@@ -2648,16 +2648,16 @@
       <c r="H37" s="44"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="106"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="124"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="139"/>
       <c r="G40" s="43" t="s">
         <v>182</v>
       </c>
@@ -2666,11 +2666,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="156">
+      <c r="E41" s="117">
         <v>1</v>
       </c>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
       <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2682,12 +2682,12 @@
       <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="156">
+      <c r="E43" s="117">
         <v>3</v>
       </c>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="155"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="116"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E44" s="44">
@@ -2744,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2765,18 +2765,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -2803,7 +2803,7 @@
       <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="109" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -2823,18 +2823,18 @@
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
@@ -2869,18 +2869,18 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
@@ -2907,7 +2907,7 @@
       <c r="H8" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="115" t="s">
         <v>234</v>
       </c>
       <c r="J8" s="37"/>
@@ -3055,18 +3055,18 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91" t="s">
@@ -3106,18 +3106,18 @@
       <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91" t="s">
@@ -3152,18 +3152,18 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3183,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3203,16 +3203,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
       <c r="J1" s="19"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -3279,16 +3279,16 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="152">
+      <c r="H3" s="113">
         <v>1</v>
       </c>
-      <c r="I3" s="152" t="s">
+      <c r="I3" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="K3" s="150" t="s">
+      <c r="K3" s="111" t="s">
         <v>217</v>
       </c>
       <c r="L3" s="31"/>
@@ -3309,16 +3309,16 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="152">
+      <c r="H4" s="113">
         <v>1</v>
       </c>
-      <c r="I4" s="152" t="s">
+      <c r="I4" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="150" t="s">
+      <c r="K4" s="111" t="s">
         <v>218</v>
       </c>
       <c r="L4" s="31"/>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
-        <f t="shared" ref="A5:A22" si="0">A4+1</f>
+        <f t="shared" ref="A5:A11" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -3339,16 +3339,16 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="152">
+      <c r="H5" s="113">
         <v>1</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J5" s="157" t="s">
+      <c r="J5" s="118" t="s">
         <v>249</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="111" t="s">
         <v>219</v>
       </c>
       <c r="L5" s="31"/>
@@ -3369,16 +3369,16 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="152">
+      <c r="H6" s="113">
         <v>1</v>
       </c>
-      <c r="I6" s="152" t="s">
+      <c r="I6" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J6" s="157" t="s">
+      <c r="J6" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="111" t="s">
         <v>220</v>
       </c>
       <c r="L6" s="31"/>
@@ -3399,16 +3399,16 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="152">
+      <c r="H7" s="113">
         <v>1</v>
       </c>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J7" s="157" t="s">
+      <c r="J7" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="150" t="s">
+      <c r="K7" s="111" t="s">
         <v>221</v>
       </c>
       <c r="L7" s="31"/>
@@ -3429,16 +3429,16 @@
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="152">
+      <c r="H8" s="113">
         <v>1</v>
       </c>
-      <c r="I8" s="152" t="s">
+      <c r="I8" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J8" s="157" t="s">
+      <c r="J8" s="118" t="s">
         <v>252</v>
       </c>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="111" t="s">
         <v>222</v>
       </c>
       <c r="L8" s="31"/>
@@ -3459,16 +3459,16 @@
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="152">
+      <c r="H9" s="113">
         <v>1</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I9" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="K9" s="150" t="s">
+      <c r="K9" s="111" t="s">
         <v>223</v>
       </c>
       <c r="L9" s="31"/>
@@ -3489,16 +3489,16 @@
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="152">
+      <c r="H10" s="113">
         <v>1</v>
       </c>
-      <c r="I10" s="152" t="s">
+      <c r="I10" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J10" s="157" t="s">
+      <c r="J10" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="K10" s="150" t="s">
+      <c r="K10" s="111" t="s">
         <v>224</v>
       </c>
       <c r="L10" s="31"/>
@@ -3519,16 +3519,16 @@
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="152">
+      <c r="H11" s="113">
         <v>1</v>
       </c>
-      <c r="I11" s="152" t="s">
+      <c r="I11" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J11" s="157" t="s">
+      <c r="J11" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="150" t="s">
+      <c r="K11" s="111" t="s">
         <v>225</v>
       </c>
       <c r="L11" s="31"/>
@@ -3549,16 +3549,16 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="152">
+      <c r="H12" s="113">
         <v>1</v>
       </c>
-      <c r="I12" s="152" t="s">
+      <c r="I12" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J12" s="157" t="s">
+      <c r="J12" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="K12" s="150" t="s">
+      <c r="K12" s="111" t="s">
         <v>226</v>
       </c>
       <c r="L12" s="31"/>
@@ -3579,16 +3579,16 @@
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="152">
+      <c r="H13" s="113">
         <v>1</v>
       </c>
-      <c r="I13" s="152" t="s">
+      <c r="I13" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J13" s="157" t="s">
+      <c r="J13" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="150" t="s">
+      <c r="K13" s="111" t="s">
         <v>227</v>
       </c>
       <c r="L13" s="31"/>
@@ -3609,16 +3609,16 @@
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="152">
+      <c r="H14" s="113">
         <v>1</v>
       </c>
-      <c r="I14" s="152" t="s">
+      <c r="I14" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="157" t="s">
+      <c r="J14" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="K14" s="150" t="s">
+      <c r="K14" s="111" t="s">
         <v>228</v>
       </c>
       <c r="L14" s="31"/>
@@ -3639,16 +3639,16 @@
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="152">
+      <c r="H15" s="113">
         <v>1</v>
       </c>
-      <c r="I15" s="152" t="s">
+      <c r="I15" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J15" s="157" t="s">
+      <c r="J15" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="K15" s="150" t="s">
+      <c r="K15" s="111" t="s">
         <v>229</v>
       </c>
       <c r="L15" s="31"/>
@@ -3669,16 +3669,16 @@
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="152">
+      <c r="H16" s="113">
         <v>1</v>
       </c>
-      <c r="I16" s="152" t="s">
+      <c r="I16" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="J16" s="157" t="s">
+      <c r="J16" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="K16" s="150" t="s">
+      <c r="K16" s="111" t="s">
         <v>230</v>
       </c>
       <c r="L16" s="31"/>
@@ -3699,14 +3699,14 @@
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="152">
+      <c r="H17" s="113">
         <v>2</v>
       </c>
-      <c r="I17" s="152" t="s">
+      <c r="I17" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="J17" s="157"/>
-      <c r="K17" s="150" t="s">
+      <c r="J17" s="118"/>
+      <c r="K17" s="111" t="s">
         <v>261</v>
       </c>
       <c r="L17" s="31"/>
@@ -3721,7 +3721,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="110" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="30"/>
@@ -3729,14 +3729,14 @@
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="152">
+      <c r="H18" s="113">
         <v>2</v>
       </c>
-      <c r="I18" s="152" t="s">
+      <c r="I18" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="J18" s="157"/>
-      <c r="K18" s="150" t="s">
+      <c r="J18" s="118"/>
+      <c r="K18" s="111" t="s">
         <v>209</v>
       </c>
       <c r="L18" s="31"/>
@@ -3751,7 +3751,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="110" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="30"/>
@@ -3759,14 +3759,14 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
-      <c r="H19" s="152">
+      <c r="H19" s="113">
         <v>2</v>
       </c>
-      <c r="I19" s="152" t="s">
+      <c r="I19" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="J19" s="157"/>
-      <c r="K19" s="150" t="s">
+      <c r="J19" s="118"/>
+      <c r="K19" s="111" t="s">
         <v>262</v>
       </c>
       <c r="L19" s="31"/>
@@ -3781,7 +3781,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="110" t="s">
         <v>215</v>
       </c>
       <c r="C20" s="30"/>
@@ -3789,14 +3789,14 @@
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="152">
+      <c r="H20" s="113">
         <v>2</v>
       </c>
-      <c r="I20" s="152" t="s">
+      <c r="I20" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="J20" s="157"/>
-      <c r="K20" s="150" t="s">
+      <c r="J20" s="118"/>
+      <c r="K20" s="111" t="s">
         <v>263</v>
       </c>
       <c r="L20" s="31"/>
@@ -3819,14 +3819,14 @@
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="152">
+      <c r="H21" s="113">
         <v>2</v>
       </c>
-      <c r="I21" s="152" t="s">
+      <c r="I21" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="J21" s="157"/>
-      <c r="K21" s="150" t="s">
+      <c r="J21" s="118"/>
+      <c r="K21" s="111" t="s">
         <v>264</v>
       </c>
       <c r="L21" s="31"/>
@@ -3849,14 +3849,14 @@
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="153">
+      <c r="H22" s="114">
         <v>2</v>
       </c>
-      <c r="I22" s="153" t="s">
+      <c r="I22" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="J22" s="158"/>
-      <c r="K22" s="151" t="s">
+      <c r="J22" s="119"/>
+      <c r="K22" s="112" t="s">
         <v>201</v>
       </c>
       <c r="L22" s="33"/>
@@ -3868,35 +3868,35 @@
     </row>
     <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="138"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="141"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="159"/>
       <c r="N26" s="98"/>
     </row>
     <row r="27" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/batch_template.xlsx
+++ b/batch_template.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40860" yWindow="2835" windowWidth="28035" windowHeight="8625" activeTab="3"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
-    <sheet name="Cytometer" sheetId="1" r:id="rId2"/>
-    <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="Additional Settings" sheetId="7" r:id="rId4"/>
+    <sheet name="Samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Calibration" sheetId="1" r:id="rId3"/>
+    <sheet name="Optional Settings" sheetId="7" r:id="rId4"/>
+    <sheet name="96w" sheetId="9" r:id="rId5"/>
+    <sheet name="48w" sheetId="11" r:id="rId6"/>
+    <sheet name="24w" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="280">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -834,14 +837,53 @@
     <t>2012-03-12</t>
   </si>
   <si>
-    <t>input file path to fcs files</t>
+    <t>C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics-Tutorial</t>
+  </si>
+  <si>
+    <t>96 WELL PLATE</t>
+  </si>
+  <si>
+    <t>Plate 1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>24 WELL PLATE</t>
+  </si>
+  <si>
+    <t>48 WELL PLATE</t>
+  </si>
+  <si>
+    <t>Note: These preferences should not be changed unless absolutely necessary.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -978,6 +1020,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1047,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1458,11 +1544,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,14 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1667,17 +1792,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,11 +1809,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,9 +1856,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1781,19 +1889,75 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1832,12 +1996,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1897,6 +2055,107 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2215,7 +2474,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2486,7 @@
     <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="1" customWidth="1"/>
@@ -2235,65 +2494,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="150"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="126"/>
+      <c r="B3" s="145"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="146" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="128"/>
+      <c r="B4" s="147"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="151" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -2304,39 +2563,39 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="140" t="s">
+      <c r="B9" s="158"/>
+      <c r="C9" s="157" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="141"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="143"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="140" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="J12" s="96" t="s">
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
+      <c r="J12" s="84" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2356,7 +2615,7 @@
       <c r="H13" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="J13" s="121" t="s">
+      <c r="J13" s="143" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2364,19 +2623,19 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="117">
+      <c r="E14" s="104">
         <v>1</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="121"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -2392,29 +2651,29 @@
       <c r="H15" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="121"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
-      <c r="E16" s="117">
+      <c r="E16" s="104">
         <v>3</v>
       </c>
-      <c r="F16" s="117" t="s">
+      <c r="F16" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="J16" s="121"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
       <c r="E17" s="44">
         <v>4</v>
       </c>
@@ -2423,53 +2682,53 @@
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
-      <c r="J17" s="121"/>
+      <c r="J17" s="143"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="E18" s="44">
         <v>5</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
-      <c r="J18" s="121"/>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
       <c r="E19" s="44">
         <v>6</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="J19" s="121"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="103"/>
-      <c r="J20" s="121"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="91"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="E21" s="122" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="E21" s="140" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="124"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
       <c r="E22" s="138" t="s">
         <v>235</v>
       </c>
@@ -2482,29 +2741,29 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="C23" s="103"/>
-      <c r="E23" s="117">
+      <c r="A23" s="94"/>
+      <c r="C23" s="91"/>
+      <c r="E23" s="104">
         <v>1</v>
       </c>
-      <c r="F23" s="117" t="s">
+      <c r="F23" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="117" t="s">
+      <c r="G23" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="100" t="s">
+      <c r="H23" s="88" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
       <c r="E24" s="44">
         <v>2</v>
       </c>
-      <c r="F24" s="120" t="s">
+      <c r="F24" s="107" t="s">
         <v>265</v>
       </c>
       <c r="G24" s="44"/>
@@ -2514,25 +2773,25 @@
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="E25" s="117">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="E25" s="104">
         <v>3</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G25" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="103" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
       <c r="E26" s="44">
         <v>4</v>
       </c>
@@ -2543,9 +2802,9 @@
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="103"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="91"/>
       <c r="E27" s="44">
         <v>5</v>
       </c>
@@ -2555,8 +2814,8 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="E28" s="44">
         <v>6</v>
       </c>
@@ -2566,24 +2825,24 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="E30" s="122" t="s">
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="E30" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="124"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="103"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="91"/>
       <c r="E31" s="138"/>
       <c r="F31" s="139"/>
       <c r="G31" s="43" t="s">
@@ -2595,19 +2854,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="E32" s="117">
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="E32" s="104">
         <v>1</v>
       </c>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="100"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="88"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="E33" s="44">
         <v>2</v>
       </c>
@@ -2616,12 +2875,12 @@
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="117">
+      <c r="E34" s="104">
         <v>3</v>
       </c>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="116"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="103"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E35" s="44">
@@ -2648,12 +2907,12 @@
       <c r="H37" s="44"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="122" t="s">
+      <c r="E39" s="140" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="124"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="142"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="138"/>
@@ -2666,12 +2925,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="117">
+      <c r="E41" s="104">
         <v>1</v>
       </c>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="100"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="88"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E42" s="44">
@@ -2682,12 +2941,12 @@
       <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="117">
+      <c r="E43" s="104">
         <v>3</v>
       </c>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="116"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E44" s="44">
@@ -2715,12 +2974,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="J13:J20"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A3:B3"/>
@@ -2734,6 +2987,12 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2742,17 +3001,807 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="1" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="34.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24">
+        <v>3</v>
+      </c>
+      <c r="E2" s="24">
+        <v>4</v>
+      </c>
+      <c r="F2" s="24">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24">
+        <v>6</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="100">
+        <v>1</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="100">
+        <v>1</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <f t="shared" ref="A5:A11" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="100">
+        <v>1</v>
+      </c>
+      <c r="I5" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="41"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="100">
+        <v>1</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="41"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="100">
+        <v>1</v>
+      </c>
+      <c r="I7" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="100">
+        <v>1</v>
+      </c>
+      <c r="I8" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="100">
+        <v>1</v>
+      </c>
+      <c r="I9" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="100">
+        <v>1</v>
+      </c>
+      <c r="I10" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="100">
+        <v>1</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <f>A11+1</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="100">
+        <v>1</v>
+      </c>
+      <c r="I12" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <f t="shared" ref="A13:A22" si="1">A12+1</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="100">
+        <v>1</v>
+      </c>
+      <c r="I13" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="41"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="100">
+        <v>1</v>
+      </c>
+      <c r="I14" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="100">
+        <v>1</v>
+      </c>
+      <c r="I15" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="K15" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="100">
+        <v>1</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="100">
+        <v>2</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="J17" s="105"/>
+      <c r="K17" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="100">
+        <v>2</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="K18" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="100">
+        <v>2</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="100">
+        <v>2</v>
+      </c>
+      <c r="I20" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="J20" s="105"/>
+      <c r="K20" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="100">
+        <v>2</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="105"/>
+      <c r="K21" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="101">
+        <v>2</v>
+      </c>
+      <c r="I22" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" s="106"/>
+      <c r="K22" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="171" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="86"/>
+    </row>
+    <row r="27" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="B27" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" s="81"/>
+      <c r="M27" s="85"/>
+    </row>
+    <row r="28" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36">
+        <v>100</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36">
+        <v>4</v>
+      </c>
+      <c r="J28" s="36">
+        <v>10</v>
+      </c>
+      <c r="K28" s="36">
+        <v>10</v>
+      </c>
+      <c r="L28" s="36"/>
+      <c r="M28" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="B26:M26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
@@ -2765,48 +3814,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="150"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="167"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-    </row>
-    <row r="3" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+      <c r="G2" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="207" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2">
@@ -2817,76 +3868,78 @@
         <v>500</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="206"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="201"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="206"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="80" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2901,13 +3954,13 @@
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="102" t="s">
         <v>234</v>
       </c>
       <c r="J8" s="37"/>
@@ -3041,7 +4094,7 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82">
+      <c r="A16" s="73">
         <v>8</v>
       </c>
       <c r="B16" s="39"/>
@@ -3055,40 +4108,40 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="81" t="s">
         <v>191</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83">
+      <c r="A19" s="74">
         <v>3</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -3106,38 +4159,38 @@
       <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="84"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="89" t="s">
         <v>204</v>
       </c>
       <c r="B22" s="38"/>
@@ -3152,18 +4205,18 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3179,1508 +4232,1693 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11" style="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="39.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="34.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="37" style="45" customWidth="1"/>
+    <col min="2" max="2" width="68.125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="16" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="197" customWidth="1"/>
+    <col min="5" max="5" width="9" style="45"/>
+    <col min="6" max="6" width="30.625" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="151" t="s">
+    <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="193" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+    </row>
+    <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="190" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="61"/>
+      <c r="F3" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="62">
         <v>7</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="24">
-        <v>2</v>
-      </c>
-      <c r="D2" s="24">
-        <v>3</v>
-      </c>
-      <c r="E2" s="24">
-        <v>4</v>
-      </c>
-      <c r="F2" s="24">
-        <v>5</v>
-      </c>
-      <c r="G2" s="24">
-        <v>6</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="113">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="62">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="62"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="62"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="62">
         <v>1</v>
       </c>
-      <c r="I3" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>247</v>
-      </c>
-      <c r="K3" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="41"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="113">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="62">
         <v>1</v>
       </c>
-      <c r="I4" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J4" s="118" t="s">
-        <v>248</v>
-      </c>
-      <c r="K4" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="41"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <f t="shared" ref="A5:A11" si="0">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="113">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="62">
         <v>1</v>
       </c>
-      <c r="I5" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>219</v>
-      </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="41"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="113">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="62">
         <v>1</v>
       </c>
-      <c r="I6" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J6" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="K6" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="41"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="113">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="62">
         <v>1</v>
       </c>
-      <c r="I7" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J7" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="113">
-        <v>1</v>
-      </c>
-      <c r="I8" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J8" s="118" t="s">
-        <v>252</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="41"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="113">
-        <v>1</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J9" s="118" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="41"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="113">
-        <v>1</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J10" s="118" t="s">
-        <v>254</v>
-      </c>
-      <c r="K10" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="41"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="113">
-        <v>1</v>
-      </c>
-      <c r="I11" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="118" t="s">
-        <v>255</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="41"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <f>A11+1</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="113">
-        <v>1</v>
-      </c>
-      <c r="I12" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J12" s="118" t="s">
-        <v>256</v>
-      </c>
-      <c r="K12" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="41"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
-        <f t="shared" ref="A13:A22" si="1">A12+1</f>
-        <v>11</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="113">
-        <v>1</v>
-      </c>
-      <c r="I13" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J13" s="118" t="s">
-        <v>257</v>
-      </c>
-      <c r="K13" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="41"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="113">
-        <v>1</v>
-      </c>
-      <c r="I14" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="K14" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="41"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="113">
-        <v>1</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="111" t="s">
-        <v>229</v>
-      </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="41"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="113">
-        <v>1</v>
-      </c>
-      <c r="I16" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="J16" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="K16" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="41"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="113">
-        <v>2</v>
-      </c>
-      <c r="I17" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="J17" s="118"/>
-      <c r="K17" s="111" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="113">
-        <v>2</v>
-      </c>
-      <c r="I18" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="J18" s="118"/>
-      <c r="K18" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="113">
-        <v>2</v>
-      </c>
-      <c r="I19" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="J19" s="118"/>
-      <c r="K19" s="111" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="110" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="113">
-        <v>2</v>
-      </c>
-      <c r="I20" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="J20" s="118"/>
-      <c r="K20" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="113">
-        <v>2</v>
-      </c>
-      <c r="I21" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="J21" s="118"/>
-      <c r="K21" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="114">
-        <v>2</v>
-      </c>
-      <c r="I22" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="J22" s="119"/>
-      <c r="K22" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="156"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="98"/>
-    </row>
-    <row r="27" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="B27" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="93"/>
-      <c r="M27" s="97"/>
-    </row>
-    <row r="28" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36">
-        <v>100</v>
-      </c>
-      <c r="G28" s="36">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="62">
         <v>0</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36">
-        <v>4</v>
-      </c>
-      <c r="J28" s="36">
-        <v>10</v>
-      </c>
-      <c r="K28" s="36">
-        <v>10</v>
-      </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="95"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="55"/>
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="64"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="64"/>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="B26:M26"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j+G9SEvzjAgjp1/q4gsx660YA6hObpstnOsMB6blU/ItZaH8hPE2O/vMSgw4k7k4RH8pXHvK7jPMXmmvLWycIg==" saltValue="Cp4CeUvoLhIiqZVN4hikRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="46" customWidth="1"/>
-    <col min="2" max="2" width="68.125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="16" style="46" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="45" customWidth="1"/>
-    <col min="5" max="5" width="9" style="46"/>
-    <col min="6" max="6" width="30.75" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="63"/>
-      <c r="F2" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="64">
-        <v>0</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="64">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="177" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
+    </row>
+    <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="111"/>
+      <c r="C4" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="114">
+        <v>1</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="114">
+        <v>2</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="114">
+        <v>3</v>
+      </c>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+    </row>
+    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="114">
+        <v>4</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="N8" s="110"/>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="114">
+        <v>5</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="114">
+        <v>6</v>
+      </c>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="117">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="64"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="63"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="64"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="64"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="64"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="64"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="64">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="118"/>
+    </row>
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="117">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="117">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="117">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="118"/>
+    </row>
+    <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="117">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="118"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="119">
+        <v>12</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="177" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="179"/>
+    </row>
+    <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B20" s="111"/>
+      <c r="C20" s="120">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="64"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="64"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="64"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="63"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="64">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="64">
+      <c r="D20" s="120">
+        <v>2</v>
+      </c>
+      <c r="E20" s="120">
+        <v>3</v>
+      </c>
+      <c r="F20" s="120">
+        <v>4</v>
+      </c>
+      <c r="G20" s="120">
+        <v>5</v>
+      </c>
+      <c r="H20" s="120">
+        <v>6</v>
+      </c>
+      <c r="I20" s="121">
+        <v>7</v>
+      </c>
+      <c r="J20" s="121">
+        <v>8</v>
+      </c>
+      <c r="K20" s="121">
+        <v>9</v>
+      </c>
+      <c r="L20" s="121">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="64">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="64"/>
-    </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="64"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="64"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="63"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="64"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="64">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="64"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="64"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="64"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="63"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="64"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="64"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="64"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="64"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="64"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="64"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="64"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="64"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="64"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="64"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="64"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="64"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="64">
+      <c r="M20" s="121">
+        <v>11</v>
+      </c>
+      <c r="N20" s="122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="118"/>
+    </row>
+    <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="118"/>
+    </row>
+    <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="118"/>
+    </row>
+    <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="118"/>
+    </row>
+    <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="118"/>
+    </row>
+    <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="118"/>
+    </row>
+    <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="118"/>
+    </row>
+    <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="185" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+    </row>
+    <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="177" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
+      <c r="L3" s="182" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+    </row>
+    <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="111"/>
+      <c r="C4" s="132">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="64">
+      <c r="D4" s="120">
+        <v>2</v>
+      </c>
+      <c r="E4" s="120">
+        <v>3</v>
+      </c>
+      <c r="F4" s="120">
+        <v>4</v>
+      </c>
+      <c r="G4" s="120">
+        <v>5</v>
+      </c>
+      <c r="H4" s="120">
+        <v>6</v>
+      </c>
+      <c r="I4" s="133">
+        <v>7</v>
+      </c>
+      <c r="J4" s="122">
+        <v>8</v>
+      </c>
+      <c r="L4" s="111"/>
+      <c r="M4" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="N4" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="112" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="R4" s="113" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="118"/>
+      <c r="L5" s="114">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="64">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="118"/>
+    </row>
+    <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="118"/>
+      <c r="L6" s="114">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="118"/>
+    </row>
+    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="118"/>
+      <c r="L7" s="114">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="118"/>
+    </row>
+    <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="134"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="118"/>
+      <c r="L8" s="114">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="118"/>
+    </row>
+    <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="134"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="118"/>
+      <c r="L9" s="114">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="118"/>
+    </row>
+    <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="124" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="35"/>
+      <c r="L10" s="114">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="118"/>
+    </row>
+    <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="L11" s="117">
+        <v>7</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="118"/>
+    </row>
+    <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L12" s="119">
+        <v>8</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="187" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="189"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="126"/>
+    </row>
+    <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="177" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
+      <c r="J3" s="182" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="111"/>
+      <c r="C4" s="120">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="64">
+      <c r="D4" s="120">
+        <v>2</v>
+      </c>
+      <c r="E4" s="120">
+        <v>3</v>
+      </c>
+      <c r="F4" s="120">
+        <v>4</v>
+      </c>
+      <c r="G4" s="120">
+        <v>5</v>
+      </c>
+      <c r="H4" s="127">
+        <v>6</v>
+      </c>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="112" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="118"/>
+      <c r="J5" s="114">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="64"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="64"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="66"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="66"/>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="71">
-        <v>0</v>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="118"/>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="118"/>
+      <c r="J6" s="114">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="118"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="118"/>
+      <c r="J7" s="114">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="118"/>
+    </row>
+    <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="124" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="J8" s="114">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="118"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H9" s="128"/>
+      <c r="J9" s="114">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="118"/>
+    </row>
+    <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H10" s="129"/>
+      <c r="J10" s="130">
+        <v>6</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H11" s="131"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="128"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="128"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="128"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q+4AfMq51w/3b/oH35xMZ+pSzv2Yb9gcacnn/8H+YjHjYaNZlYiGxnSafoi9D9vRa0eZa/DQssSbARR5nyXpUA==" saltValue="P6iKFoF71hFmJUGwOglfvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>